--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3990451.040833284</v>
+        <v>3988198.961122077</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>129.6194020613857</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826029</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677224</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>70.99506002739665</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>122.2882635917089</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>26.79406931039863</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.7126336312586</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>66.06306350756321</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606658</v>
       </c>
       <c r="D8" t="n">
-        <v>195.0465954186437</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.32727861849563</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>12.12106316694061</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444127</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695742</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>177.696569780335</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>126.4418041083157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.110222835252</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.14770589484</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1337.88200728809</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>952.0937546898456</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,10 +4328,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,7 +4346,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875186</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899374</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,10 +4410,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218342</v>
@@ -4486,52 +4486,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>319.8727631082783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>666.2025176122977</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W7" t="n">
-        <v>376.7853475753371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964586</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024174</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265599</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.077176004519</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028707</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>666.2025176122977</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>376.7853475753371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168601</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,19 +5419,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5495,31 +5495,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,19 +5990,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6680,46 +6680,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400717</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400717</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>366.9636532421613</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>199.7675539570412</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6953,10 +6953,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1708.43867092217</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1419.02150088521</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368252064</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>35.4033308462452</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>3.329716221309553</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26071,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>90.96364621897253</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619388.6609627879</v>
+        <v>619388.6609627878</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="G2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900065</v>
-      </c>
       <c r="K2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="O2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.69604186742</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186738</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26445,13 +26445,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287552</v>
+        <v>-709233.6605287554</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988372</v>
+        <v>619511.0851988371</v>
       </c>
       <c r="D6" t="n">
-        <v>619511.0851988371</v>
+        <v>619511.085198837</v>
       </c>
       <c r="E6" t="n">
-        <v>365784.9120168756</v>
+        <v>365750.1740914409</v>
       </c>
       <c r="F6" t="n">
-        <v>691197.3738242316</v>
+        <v>691162.6358987958</v>
       </c>
       <c r="G6" t="n">
-        <v>691197.3738242316</v>
+        <v>691162.6358987961</v>
       </c>
       <c r="H6" t="n">
-        <v>691197.3738242317</v>
+        <v>691162.6358987958</v>
       </c>
       <c r="I6" t="n">
-        <v>691197.3738242317</v>
+        <v>691162.6358987959</v>
       </c>
       <c r="J6" t="n">
-        <v>473666.1714269545</v>
+        <v>473631.4335015183</v>
       </c>
       <c r="K6" t="n">
-        <v>691197.3738242317</v>
+        <v>691162.6358987961</v>
       </c>
       <c r="L6" t="n">
-        <v>691197.3738242317</v>
+        <v>691162.6358987959</v>
       </c>
       <c r="M6" t="n">
-        <v>606142.3458887195</v>
+        <v>606107.6079632841</v>
       </c>
       <c r="N6" t="n">
-        <v>691197.3738242317</v>
+        <v>691162.6358987963</v>
       </c>
       <c r="O6" t="n">
-        <v>691197.3738242316</v>
+        <v>691162.635898796</v>
       </c>
       <c r="P6" t="n">
-        <v>691197.3738242317</v>
+        <v>691162.6358987961</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>277.2566436803257</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734507</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351651</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>74.4259879955346</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6421064805529</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>359.4438693456549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>159.6465918814739</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103418</v>
       </c>
       <c r="D8" t="n">
-        <v>159.6364462020393</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576736</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>213.5885922220965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.055065000882835e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153336</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779320004</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
